--- a/dataset/Migrated Information/Migrated Samity.xlsx
+++ b/dataset/Migrated Information/Migrated Samity.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="26">
   <si>
     <t>Branch Code</t>
   </si>
@@ -78,6 +78,18 @@
   </si>
   <si>
     <t>001-009</t>
+  </si>
+  <si>
+    <t>222-011 - LAMP 1</t>
+  </si>
+  <si>
+    <t>222-012 - Dollan Chapa</t>
+  </si>
+  <si>
+    <t>222-013 - Golap</t>
+  </si>
+  <si>
+    <t>222-014 - Modhomoti</t>
   </si>
 </sst>
 </file>
@@ -122,7 +134,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -226,6 +238,90 @@
         <v>7</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/dataset/Migrated Information/Migrated Samity.xlsx
+++ b/dataset/Migrated Information/Migrated Samity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DataShift\dataset\Migrated Information\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD03E9C4-7096-4507-A887-84D7BF73B535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F6EFED6-E594-4EF3-A9F7-1528DAF84C0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Branch Code</t>
   </si>
@@ -32,69 +32,6 @@
   </si>
   <si>
     <t>Status</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Samity is not Migrated</t>
-  </si>
-  <si>
-    <t>Samity is Migrated</t>
-  </si>
-  <si>
-    <t>222-007 - LAMP 1</t>
-  </si>
-  <si>
-    <t>222-008 - Dollan Chapa</t>
-  </si>
-  <si>
-    <t>222-009 - Golap</t>
-  </si>
-  <si>
-    <t>222-010 - Modhomoti</t>
-  </si>
-  <si>
-    <t>222-012 - Dollan Chapa</t>
-  </si>
-  <si>
-    <t>222-013 - Golap</t>
-  </si>
-  <si>
-    <t>222-014 - Modhomoti</t>
-  </si>
-  <si>
-    <t>222-003</t>
-  </si>
-  <si>
-    <t>222-004</t>
-  </si>
-  <si>
-    <t>222-007</t>
-  </si>
-  <si>
-    <t>222-008</t>
-  </si>
-  <si>
-    <t>222-009</t>
-  </si>
-  <si>
-    <t>222-005</t>
-  </si>
-  <si>
-    <t>222-006</t>
-  </si>
-  <si>
-    <t>222-001</t>
-  </si>
-  <si>
-    <t>222-010</t>
-  </si>
-  <si>
-    <t>222-011</t>
   </si>
 </sst>
 </file>
@@ -446,10 +383,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A2" sqref="A2:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -471,160 +408,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" t="s">
-        <v>6</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
